--- a/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
@@ -258,7 +258,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -266,23 +266,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -290,10 +291,10 @@
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.6875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.5" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.6875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -919,273 +920,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C6B864E-69AD-43A7-B0A7-051376C32D9B}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80BD037F-A96D-4F2B-BB18-15A55E601745}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A4AD062-7541-46C0-A70E-9C9738ECB4DC}"/>
 </file>
--- a/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="74">
   <si>
     <t>Sezione</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>minuto</t>
+  </si>
+  <si>
+    <t>Dati Generali</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
   <si>
     <t>Intestatario</t>
@@ -283,7 +292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -445,13 +454,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -459,19 +468,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -479,19 +488,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -499,19 +508,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -519,19 +528,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -539,19 +548,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -559,19 +568,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -579,19 +588,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -599,19 +608,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -619,19 +628,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -639,19 +648,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -659,19 +668,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -679,19 +688,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -699,19 +708,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -719,19 +728,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -739,19 +748,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -759,19 +768,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -779,19 +788,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -799,19 +808,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -819,19 +828,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -839,19 +848,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -859,19 +868,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -879,19 +888,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -899,21 +908,41 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="82">
   <si>
     <t>Sezione</t>
   </si>
@@ -74,24 +74,48 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Dati Generali</t>
+    <t>Dati generali</t>
   </si>
   <si>
     <t>Data decorrenza</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>dataDecorrenza</t>
   </si>
   <si>
+    <t>Ora decorrenza</t>
+  </si>
+  <si>
+    <t>oraDecorrenza</t>
+  </si>
+  <si>
+    <t>Minuto decorrenza</t>
+  </si>
+  <si>
+    <t>minutoDecorrenza</t>
+  </si>
+  <si>
+    <t>Motivo recupero</t>
+  </si>
+  <si>
+    <t>motivoRecupero</t>
+  </si>
+  <si>
+    <t>Descrizione recupero</t>
+  </si>
+  <si>
+    <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
     <t>Intestatario</t>
   </si>
   <si>
     <t>Cognome</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
@@ -224,7 +248,7 @@
     <t>flagComparente</t>
   </si>
   <si>
-    <t>flag firmatario</t>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>flagFirmatario</t>
@@ -292,7 +316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -302,7 +326,7 @@
     <col min="2" max="2" width="30.6875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -454,13 +478,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -468,19 +492,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -488,19 +512,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -508,19 +532,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -528,19 +552,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -548,16 +572,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>35</v>
@@ -568,7 +592,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -577,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>37</v>
@@ -588,16 +612,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
@@ -608,16 +632,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>41</v>
@@ -628,16 +652,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
@@ -648,16 +672,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>45</v>
@@ -668,16 +692,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -688,16 +712,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>49</v>
@@ -708,16 +732,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -728,16 +752,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>53</v>
@@ -748,16 +772,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>55</v>
@@ -768,16 +792,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>57</v>
@@ -788,16 +812,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>59</v>
@@ -808,16 +832,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>61</v>
@@ -828,16 +852,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>63</v>
@@ -848,16 +872,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
@@ -868,16 +892,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>67</v>
@@ -888,16 +912,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>69</v>
@@ -908,16 +932,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>71</v>
@@ -928,21 +952,101 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="84">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -316,7 +322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -328,6 +334,7 @@
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -349,25 +356,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -389,665 +402,767 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>
@@ -334,7 +334,7 @@
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="85">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>999.5.1</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>999.5.1</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -403,766 +406,766 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="87">
   <si>
     <t>Sezione</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -325,7 +331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -877,7 +883,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>37</v>
@@ -969,7 +975,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -1084,7 +1090,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>37</v>
@@ -1130,7 +1136,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>37</v>
@@ -1147,16 +1153,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
@@ -1165,6 +1171,29 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="95">
   <si>
     <t>Sezione</t>
   </si>
@@ -249,6 +249,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -331,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1113,7 +1137,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>37</v>
@@ -1136,7 +1160,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>37</v>
@@ -1176,16 +1200,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1194,6 +1218,98 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="97">
   <si>
     <t>Sezione</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
   </si>
   <si>
     <t>Sesso</t>
@@ -355,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -723,7 +729,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>37</v>
@@ -815,7 +821,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>37</v>
@@ -930,7 +936,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>37</v>
@@ -1022,7 +1028,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>37</v>
@@ -1229,7 +1235,7 @@
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>37</v>
@@ -1275,7 +1281,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>37</v>
@@ -1292,16 +1298,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1310,6 +1316,29 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="99">
   <si>
     <t>Sezione</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -361,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -614,7 +620,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
@@ -1005,7 +1011,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -1028,7 +1034,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>37</v>
@@ -1258,7 +1264,7 @@
         <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>37</v>
@@ -1304,7 +1310,7 @@
         <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>37</v>
@@ -1321,16 +1327,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1339,6 +1345,29 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="101">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
+  </si>
+  <si>
+    <t>Identificativo Atto Cartaceo</t>
+  </si>
+  <si>
+    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Intestatario</t>
@@ -367,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -660,19 +666,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -683,16 +689,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -706,16 +712,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -729,7 +735,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -738,7 +744,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -752,16 +758,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -775,7 +781,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -784,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -798,7 +804,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -807,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -821,7 +827,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
@@ -830,7 +836,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -844,16 +850,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -867,7 +873,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -876,7 +882,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -890,7 +896,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -899,7 +905,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -913,7 +919,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
@@ -922,7 +928,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -936,7 +942,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
@@ -945,7 +951,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -959,16 +965,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -982,7 +988,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
@@ -991,7 +997,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>66</v>
@@ -1005,16 +1011,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>68</v>
@@ -1028,7 +1034,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -1037,7 +1043,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
@@ -1051,7 +1057,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>71</v>
@@ -1060,7 +1066,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>72</v>
@@ -1074,7 +1080,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>73</v>
@@ -1083,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>74</v>
@@ -1097,7 +1103,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>75</v>
@@ -1106,7 +1112,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>76</v>
@@ -1120,7 +1126,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
@@ -1129,7 +1135,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -1143,7 +1149,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
@@ -1152,7 +1158,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>80</v>
@@ -1166,7 +1172,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
@@ -1175,7 +1181,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
@@ -1189,7 +1195,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
@@ -1198,7 +1204,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
@@ -1212,7 +1218,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
@@ -1221,7 +1227,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1235,7 +1241,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
@@ -1244,7 +1250,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
@@ -1258,7 +1264,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
@@ -1267,7 +1273,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>90</v>
@@ -1281,16 +1287,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1304,7 +1310,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
@@ -1313,7 +1319,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1327,16 +1333,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1350,16 +1356,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>98</v>
@@ -1368,6 +1374,29 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="99">
   <si>
     <t>Sezione</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>descrizioneMotivoRecupero</t>
-  </si>
-  <si>
-    <t>Identificativo Atto Cartaceo</t>
-  </si>
-  <si>
-    <t>idAttoCartaceo</t>
   </si>
   <si>
     <t>Intestatario</t>
@@ -373,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -666,19 +660,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -689,16 +683,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>40</v>
@@ -712,16 +706,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -735,7 +729,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
@@ -744,7 +738,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -758,16 +752,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -781,7 +775,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -790,7 +784,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -804,7 +798,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
@@ -813,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -827,7 +821,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
@@ -836,7 +830,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -850,16 +844,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -873,7 +867,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
@@ -882,7 +876,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -896,7 +890,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -905,7 +899,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -919,7 +913,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
@@ -928,7 +922,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -942,7 +936,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
@@ -951,7 +945,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -965,16 +959,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -988,7 +982,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
@@ -997,7 +991,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>66</v>
@@ -1011,16 +1005,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>68</v>
@@ -1034,7 +1028,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -1043,7 +1037,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
@@ -1057,7 +1051,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>71</v>
@@ -1066,7 +1060,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>72</v>
@@ -1080,7 +1074,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>73</v>
@@ -1089,7 +1083,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>74</v>
@@ -1103,7 +1097,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>75</v>
@@ -1112,7 +1106,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>76</v>
@@ -1126,7 +1120,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
@@ -1135,7 +1129,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -1149,7 +1143,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
@@ -1158,7 +1152,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>80</v>
@@ -1172,7 +1166,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
@@ -1181,7 +1175,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
@@ -1195,7 +1189,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
@@ -1204,7 +1198,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
@@ -1218,7 +1212,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
@@ -1227,7 +1221,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1241,7 +1235,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
@@ -1250,7 +1244,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
@@ -1264,7 +1258,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
@@ -1273,7 +1267,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>90</v>
@@ -1287,16 +1281,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1310,7 +1304,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
@@ -1319,7 +1313,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1333,16 +1327,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1356,16 +1350,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>98</v>
@@ -1374,29 +1368,6 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="105">
   <si>
     <t>Sezione</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -373,14 +385,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.6875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.3984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.49609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.12109375" customWidth="true" bestFit="true"/>
@@ -810,7 +822,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>39</v>
@@ -833,7 +845,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>39</v>
@@ -879,7 +891,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>39</v>
@@ -902,7 +914,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>39</v>
@@ -994,7 +1006,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>39</v>
@@ -1017,7 +1029,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>39</v>
@@ -1040,7 +1052,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
@@ -1063,7 +1075,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>39</v>
@@ -1316,7 +1328,7 @@
         <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>39</v>
@@ -1339,7 +1351,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>39</v>
@@ -1362,7 +1374,7 @@
         <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>39</v>
@@ -1379,7 +1391,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>99</v>
@@ -1388,7 +1400,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>100</v>
@@ -1397,6 +1409,52 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="107">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,6 +35,18 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -44,9 +56,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
   </si>
   <si>
     <t>Data decorrenza</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>dataDecorrenza</t>
@@ -385,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -447,63 +453,63 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -512,90 +518,90 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -604,21 +610,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -627,12 +633,12 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
@@ -641,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -650,21 +656,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -673,21 +679,21 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -696,44 +702,44 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>42</v>
@@ -742,21 +748,21 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -765,21 +771,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -788,12 +794,12 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -802,7 +808,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -811,21 +817,21 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -834,21 +840,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -857,12 +863,12 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
@@ -871,7 +877,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -880,21 +886,21 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -903,21 +909,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -926,21 +932,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -949,21 +955,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -972,21 +978,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -995,21 +1001,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>66</v>
@@ -1018,21 +1024,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>68</v>
@@ -1041,12 +1047,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -1055,7 +1061,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
@@ -1064,21 +1070,21 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>72</v>
@@ -1087,21 +1093,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>74</v>
@@ -1110,21 +1116,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>76</v>
@@ -1133,21 +1139,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -1156,21 +1162,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>80</v>
@@ -1179,21 +1185,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
@@ -1202,21 +1208,21 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
@@ -1225,21 +1231,21 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1248,21 +1254,21 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
@@ -1271,21 +1277,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>90</v>
@@ -1294,21 +1300,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1317,21 +1323,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1340,21 +1346,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1363,12 +1369,12 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>97</v>
@@ -1377,7 +1383,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>98</v>
@@ -1386,21 +1392,21 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>100</v>
@@ -1409,21 +1415,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>102</v>
@@ -1432,12 +1438,12 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>103</v>
@@ -1446,7 +1452,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
@@ -1455,7 +1461,30 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_999.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="109">
   <si>
     <t>Sezione</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>idAttoCartaceo</t>
+  </si>
+  <si>
+    <t>Atto secretato</t>
+  </si>
+  <si>
+    <t>flagsecretato</t>
   </si>
   <si>
     <t>Intestatario</t>
@@ -391,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -730,19 +736,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -753,16 +759,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
@@ -776,16 +782,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>46</v>
@@ -799,7 +805,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
@@ -808,7 +814,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
@@ -822,16 +828,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>50</v>
@@ -845,16 +851,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>52</v>
@@ -868,7 +874,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>53</v>
@@ -877,7 +883,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -891,16 +897,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -914,7 +920,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
@@ -923,7 +929,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -937,7 +943,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
@@ -946,7 +952,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -960,16 +966,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -983,7 +989,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
@@ -992,7 +998,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -1006,7 +1012,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
@@ -1015,7 +1021,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>66</v>
@@ -1029,7 +1035,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>67</v>
@@ -1038,7 +1044,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>68</v>
@@ -1052,7 +1058,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -1061,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
@@ -1075,16 +1081,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>72</v>
@@ -1098,7 +1104,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>73</v>
@@ -1107,7 +1113,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>74</v>
@@ -1121,16 +1127,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>76</v>
@@ -1144,7 +1150,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
@@ -1153,7 +1159,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -1167,7 +1173,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
@@ -1176,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>80</v>
@@ -1190,7 +1196,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
@@ -1199,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
@@ -1213,7 +1219,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
@@ -1222,7 +1228,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
@@ -1236,7 +1242,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
@@ -1245,7 +1251,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1259,7 +1265,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
@@ -1268,7 +1274,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
@@ -1282,7 +1288,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
@@ -1291,7 +1297,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>90</v>
@@ -1305,7 +1311,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>91</v>
@@ -1314,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1328,7 +1334,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
@@ -1337,7 +1343,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1351,7 +1357,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
@@ -1360,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1374,7 +1380,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>97</v>
@@ -1383,7 +1389,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>98</v>
@@ -1397,16 +1403,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>100</v>
@@ -1420,7 +1426,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>101</v>
@@ -1429,7 +1435,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>102</v>
@@ -1443,16 +1449,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
@@ -1466,16 +1472,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>106</v>
@@ -1484,6 +1490,29 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>19</v>
       </c>
     </row>
